--- a/target/test-classes/TutorialsNinja.xlsx
+++ b/target/test-classes/TutorialsNinja.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="44">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -32,16 +32,13 @@
     <t xml:space="preserve">LoginTest</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">RegistrationTest</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SearchTest</t>
+    <t xml:space="preserve">ForgotPasswordTest</t>
   </si>
   <si>
     <t xml:space="preserve">Browser</t>
@@ -74,13 +71,19 @@
     <t xml:space="preserve">sack@123</t>
   </si>
   <si>
+    <t xml:space="preserve">mack@apptest.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mack@123</t>
+  </si>
+  <si>
     <t xml:space="preserve">Success</t>
   </si>
   <si>
-    <t xml:space="preserve">mack@apptest.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mack@123</t>
+    <t xml:space="preserve">wack@apptest.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic</t>
   </si>
   <si>
     <t xml:space="preserve">FirstName</t>
@@ -104,7 +107,7 @@
     <t xml:space="preserve">Mahi</t>
   </si>
   <si>
-    <t xml:space="preserve">1234567890a</t>
+    <t xml:space="preserve">2024a</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -116,43 +119,40 @@
     <t xml:space="preserve">Monu</t>
   </si>
   <si>
-    <t xml:space="preserve">1234567891a</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nilesh</t>
   </si>
   <si>
     <t xml:space="preserve">Kumar</t>
   </si>
   <si>
+    <t xml:space="preserve">20a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123456789323a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jones</t>
+  </si>
+  <si>
     <t xml:space="preserve">12345a</t>
   </si>
   <si>
-    <t xml:space="preserve">Rahul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123456789323a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567893a</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sack</t>
   </si>
   <si>
-    <t xml:space="preserve">Mack</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sck@test.com</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -229,6 +229,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -258,7 +265,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,6 +291,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,10 +391,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.12"/>
@@ -385,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -393,17 +416,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -425,15 +448,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.88"/>
@@ -453,16 +476,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,16 +493,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,16 +510,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,152 +527,136 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="E9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
+      <c r="H10" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
@@ -669,13 +676,13 @@
         <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
@@ -695,13 +702,13 @@
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
@@ -718,16 +725,16 @@
         <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,23 +742,23 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,23 +766,23 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>42</v>
@@ -791,41 +798,79 @@
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="sumit@test.com"/>
@@ -833,6 +878,9 @@
     <hyperlink ref="D4" r:id="rId3" display="sack@123"/>
     <hyperlink ref="C5" r:id="rId4" display="mack@apptest.com"/>
     <hyperlink ref="D5" r:id="rId5" display="mack@123"/>
+    <hyperlink ref="D7" r:id="rId6" display="mack@123"/>
+    <hyperlink ref="C22" r:id="rId7" display="sack@apptest.com"/>
+    <hyperlink ref="C23" r:id="rId8" display="sck@test.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
